--- a/Brain Tumor Trials.xlsx
+++ b/Brain Tumor Trials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gwyneth Rose Rosario\Downloads\0525 Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gwyneth\Acads\College\Fourth Year\Special Problem\FHE-Tumor-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68692C64-B49A-4CC0-A971-5CEF3302A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E661D-FB2F-4A63-901B-049908218669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{FBA8234E-E23C-4BC9-A862-8B3D85B2A8E1}"/>
+    <workbookView xWindow="28692" yWindow="-72" windowWidth="29016" windowHeight="15696" activeTab="4" xr2:uid="{FBA8234E-E23C-4BC9-A862-8B3D85B2A8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Brain 0511" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,87 +653,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +666,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,36 +1073,36 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="G3" s="50" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="G3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="G5" s="47" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="54"/>
+      <c r="G5" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1466,20 +1457,20 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="G18" s="47" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="G18" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="49"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="54"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1834,20 +1825,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="G31" s="47" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="G31" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="49"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="54"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1980,131 +1971,131 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="I4" s="68" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="I4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="I6" s="51" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="I6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="I7" s="53" t="s">
+      <c r="G7" s="69"/>
+      <c r="I7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="64"/>
-      <c r="L7" s="57" t="s">
+      <c r="K7" s="68"/>
+      <c r="L7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="57" t="s">
+      <c r="M7" s="68"/>
+      <c r="N7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="58"/>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="60" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="65"/>
+      <c r="J8" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="61"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="59"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="61"/>
-      <c r="N9" s="59"/>
+      <c r="N9" s="57"/>
       <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2328,111 +2319,111 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="I16" s="51" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="I16" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="57" t="s">
+      <c r="C17" s="68"/>
+      <c r="D17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="57" t="s">
+      <c r="E17" s="68"/>
+      <c r="F17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="I17" s="53" t="s">
+      <c r="G17" s="69"/>
+      <c r="I17" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="64"/>
-      <c r="L17" s="57" t="s">
+      <c r="K17" s="68"/>
+      <c r="L17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="57" t="s">
+      <c r="M17" s="68"/>
+      <c r="N17" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="58"/>
+      <c r="O17" s="69"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="67" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="65"/>
+      <c r="J18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="59"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="61"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="59"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
       <c r="M19" s="61"/>
-      <c r="N19" s="59"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="61"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2656,111 +2647,111 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="I26" s="51" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="I26" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="I27" s="52" t="s">
+      <c r="G27" s="69"/>
+      <c r="I27" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="56"/>
-      <c r="L27" s="55" t="s">
+      <c r="K27" s="73"/>
+      <c r="L27" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="56"/>
-      <c r="N27" s="57" t="s">
+      <c r="M27" s="73"/>
+      <c r="N27" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="O27" s="58"/>
+      <c r="O27" s="69"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="60" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="59"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="61"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="59"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="57"/>
       <c r="M29" s="61"/>
-      <c r="N29" s="59"/>
+      <c r="N29" s="57"/>
       <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -3060,6 +3051,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
@@ -3072,62 +3119,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I16:O16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="I26:O26"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3162,414 +3153,414 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="L4" s="69" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="W4" s="69" t="s">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="W4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AH4" s="69" t="s">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AH4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AS4" s="69" t="s">
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AS4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="6" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="L6" s="51" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="L6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="W6" s="51" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="W6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AH6" s="51" t="s">
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AH6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AS6" s="51" t="s">
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AS6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
     </row>
     <row r="7" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="57" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="57" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="58"/>
-      <c r="L7" s="53" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="L7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="57" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="57" t="s">
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="58"/>
-      <c r="W7" s="53" t="s">
+      <c r="T7" s="68"/>
+      <c r="U7" s="69"/>
+      <c r="W7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="57" t="s">
+      <c r="X7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="57" t="s">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="57" t="s">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="58"/>
-      <c r="AH7" s="53" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69"/>
+      <c r="AH7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="57" t="s">
+      <c r="AI7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="57" t="s">
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="58"/>
-      <c r="AS7" s="53" t="s">
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="69"/>
+      <c r="AS7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT7" s="57" t="s">
+      <c r="AT7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="57" t="s">
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="57" t="s">
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="58"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="69"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB8" s="60" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="65"/>
+      <c r="M8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="65"/>
+      <c r="X8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB8" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="67"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="67"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="67"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="63"/>
-      <c r="AU9" s="63"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="67"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="60"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="60"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="60"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="60"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="60"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -3920,352 +3911,352 @@
       <c r="BB12" s="37"/>
     </row>
     <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="L14" s="51" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="L14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="W14" s="51" t="s">
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="W14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AH14" s="51" t="s">
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AH14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AS14" s="51" t="s">
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AS14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
     </row>
     <row r="15" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="57" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="58"/>
-      <c r="L15" s="53" t="s">
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="L15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="57" t="s">
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="57" t="s">
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="58"/>
-      <c r="W15" s="53" t="s">
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+      <c r="W15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="57" t="s">
+      <c r="X15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="57" t="s">
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="57" t="s">
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="58"/>
-      <c r="AH15" s="53" t="s">
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="69"/>
+      <c r="AH15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="57" t="s">
+      <c r="AI15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="57" t="s">
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="57" t="s">
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="58"/>
-      <c r="AS15" s="53" t="s">
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="69"/>
+      <c r="AS15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT15" s="57" t="s">
+      <c r="AT15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="57" t="s">
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="57" t="s">
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA15" s="64"/>
-      <c r="BB15" s="58"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="69"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="63"/>
-      <c r="X16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB16" s="60" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="65"/>
+      <c r="X16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB16" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="67"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="67"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="67"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="67"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="67"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="60"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="60"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="60"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="60"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="60"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -4616,352 +4607,352 @@
       <c r="BB20" s="37"/>
     </row>
     <row r="22" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="L22" s="51" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="L22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="W22" s="51" t="s">
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="W22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
-      <c r="AH22" s="51" t="s">
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AH22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AS22" s="51" t="s">
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
+      <c r="AS22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="63"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="63"/>
     </row>
     <row r="23" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="57" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="57" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="58"/>
-      <c r="L23" s="53" t="s">
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
+      <c r="L23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="57" t="s">
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="57" t="s">
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="64"/>
-      <c r="U23" s="58"/>
-      <c r="W23" s="53" t="s">
+      <c r="T23" s="68"/>
+      <c r="U23" s="69"/>
+      <c r="W23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X23" s="57" t="s">
+      <c r="X23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="57" t="s">
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="57" t="s">
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="58"/>
-      <c r="AH23" s="53" t="s">
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="69"/>
+      <c r="AH23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI23" s="57" t="s">
+      <c r="AI23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="57" t="s">
+      <c r="AJ23" s="68"/>
+      <c r="AK23" s="68"/>
+      <c r="AL23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="57" t="s">
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="68"/>
+      <c r="AO23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="58"/>
-      <c r="AS23" s="53" t="s">
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="69"/>
+      <c r="AS23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT23" s="57" t="s">
+      <c r="AT23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU23" s="64"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="57" t="s">
+      <c r="AU23" s="68"/>
+      <c r="AV23" s="68"/>
+      <c r="AW23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX23" s="64"/>
-      <c r="AY23" s="64"/>
-      <c r="AZ23" s="57" t="s">
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA23" s="64"/>
-      <c r="BB23" s="58"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="69"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="63"/>
-      <c r="X24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB24" s="60" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="65"/>
+      <c r="M24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="65"/>
+      <c r="X24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB24" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="54"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="67"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="67"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="67"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="67"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="67"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="60"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="60"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="60"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="60"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="60"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -5389,6 +5380,197 @@
     <row r="65" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="215">
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="W4:AF4"/>
+    <mergeCell ref="W6:AF6"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="W23:W25"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="W14:AF14"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
+    <mergeCell ref="W22:AF22"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AH23:AH25"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AJ24:AJ25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AH14:AQ14"/>
+    <mergeCell ref="AH15:AH17"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="AL15:AN15"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AL24:AL25"/>
+    <mergeCell ref="AH22:AQ22"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AS4:BB4"/>
+    <mergeCell ref="AS6:BB6"/>
+    <mergeCell ref="AS7:AS9"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AW7:AY7"/>
+    <mergeCell ref="AZ7:BB7"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="AS14:BB14"/>
     <mergeCell ref="BB24:BB25"/>
     <mergeCell ref="AV24:AV25"/>
     <mergeCell ref="AW24:AW25"/>
@@ -5413,197 +5595,6 @@
     <mergeCell ref="AT16:AT17"/>
     <mergeCell ref="AU16:AU17"/>
     <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="AS14:BB14"/>
-    <mergeCell ref="AS4:BB4"/>
-    <mergeCell ref="AS6:BB6"/>
-    <mergeCell ref="AS7:AS9"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AW7:AY7"/>
-    <mergeCell ref="AZ7:BB7"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AH23:AH25"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="AL23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AJ24:AJ25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AH14:AQ14"/>
-    <mergeCell ref="AH15:AH17"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="AL15:AN15"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AL24:AL25"/>
-    <mergeCell ref="AH22:AQ22"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="W23:W25"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="W14:AF14"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="W22:AF22"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="W4:AF4"/>
-    <mergeCell ref="W6:AF6"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="L6:U6"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="L14:U14"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -5797,70 +5788,70 @@
       <c r="BB3" s="7"/>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="69" t="s">
+      <c r="W4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
       <c r="AG4" s="7"/>
-      <c r="AH4" s="69" t="s">
+      <c r="AH4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
       <c r="AR4" s="7"/>
-      <c r="AS4" s="69" t="s">
+      <c r="AS4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -5919,368 +5910,368 @@
       <c r="BB5" s="7"/>
     </row>
     <row r="6" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="51" t="s">
+      <c r="W6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
       <c r="AG6" s="7"/>
-      <c r="AH6" s="51" t="s">
+      <c r="AH6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
       <c r="AR6" s="7"/>
-      <c r="AS6" s="51" t="s">
+      <c r="AS6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
     </row>
     <row r="7" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="57" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="57" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="58"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="57" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="57" t="s">
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="58"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="53" t="s">
+      <c r="W7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="57" t="s">
+      <c r="X7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="57" t="s">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="57" t="s">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="58"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69"/>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="53" t="s">
+      <c r="AH7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="57" t="s">
+      <c r="AI7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="57" t="s">
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="58"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="69"/>
       <c r="AR7" s="7"/>
-      <c r="AS7" s="53" t="s">
+      <c r="AS7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT7" s="57" t="s">
+      <c r="AT7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="57" t="s">
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="57" t="s">
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="58"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="69"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="60" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="60" t="s">
+      <c r="L8" s="65"/>
+      <c r="M8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="60" t="s">
+      <c r="W8" s="65"/>
+      <c r="X8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AG8" s="7"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ8" s="60" t="s">
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AR8" s="7"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB8" s="60" t="s">
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB8" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="67"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="67"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="60"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="67"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="60"/>
       <c r="AR9" s="7"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="63"/>
-      <c r="AU9" s="63"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="67"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="60"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -6699,368 +6690,368 @@
       <c r="BB13" s="7"/>
     </row>
     <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="51" t="s">
+      <c r="L14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="51" t="s">
+      <c r="W14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
       <c r="AG14" s="7"/>
-      <c r="AH14" s="51" t="s">
+      <c r="AH14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
       <c r="AR14" s="7"/>
-      <c r="AS14" s="51" t="s">
+      <c r="AS14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
     </row>
     <row r="15" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="57" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="58"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="57" t="s">
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="57" t="s">
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="58"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="53" t="s">
+      <c r="W15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="57" t="s">
+      <c r="X15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="57" t="s">
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="57" t="s">
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="58"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="69"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="53" t="s">
+      <c r="AH15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="57" t="s">
+      <c r="AI15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="57" t="s">
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="57" t="s">
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="58"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="69"/>
       <c r="AR15" s="7"/>
-      <c r="AS15" s="53" t="s">
+      <c r="AS15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT15" s="57" t="s">
+      <c r="AT15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="57" t="s">
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="57" t="s">
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA15" s="64"/>
-      <c r="BB15" s="58"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="69"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="60" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="70" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="7"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="60" t="s">
+      <c r="L16" s="65"/>
+      <c r="M16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="70" t="s">
         <v>5</v>
       </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="63"/>
-      <c r="X16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="60" t="s">
+      <c r="W16" s="65"/>
+      <c r="X16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AG16" s="7"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ16" s="60" t="s">
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AR16" s="7"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB16" s="60" t="s">
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB16" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="67"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="67"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="7"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="67"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="60"/>
       <c r="AG17" s="7"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="67"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="60"/>
       <c r="AR17" s="7"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="67"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="60"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
@@ -7479,368 +7470,368 @@
       <c r="BB21" s="7"/>
     </row>
     <row r="22" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="51" t="s">
+      <c r="W22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="51"/>
-      <c r="AA22" s="51"/>
-      <c r="AB22" s="51"/>
-      <c r="AC22" s="51"/>
-      <c r="AD22" s="51"/>
-      <c r="AE22" s="51"/>
-      <c r="AF22" s="51"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
       <c r="AG22" s="7"/>
-      <c r="AH22" s="51" t="s">
+      <c r="AH22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51"/>
-      <c r="AK22" s="51"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
       <c r="AR22" s="7"/>
-      <c r="AS22" s="51" t="s">
+      <c r="AS22" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="63"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="63"/>
     </row>
     <row r="23" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="57" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="57" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="58"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="57" t="s">
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="57" t="s">
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="64"/>
-      <c r="U23" s="58"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="69"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="53" t="s">
+      <c r="W23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X23" s="57" t="s">
+      <c r="X23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="64"/>
-      <c r="AA23" s="57" t="s">
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB23" s="64"/>
-      <c r="AC23" s="64"/>
-      <c r="AD23" s="57" t="s">
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE23" s="64"/>
-      <c r="AF23" s="58"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="69"/>
       <c r="AG23" s="7"/>
-      <c r="AH23" s="53" t="s">
+      <c r="AH23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI23" s="57" t="s">
+      <c r="AI23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ23" s="64"/>
-      <c r="AK23" s="64"/>
-      <c r="AL23" s="57" t="s">
+      <c r="AJ23" s="68"/>
+      <c r="AK23" s="68"/>
+      <c r="AL23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM23" s="64"/>
-      <c r="AN23" s="64"/>
-      <c r="AO23" s="57" t="s">
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="68"/>
+      <c r="AO23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP23" s="64"/>
-      <c r="AQ23" s="58"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="69"/>
       <c r="AR23" s="7"/>
-      <c r="AS23" s="53" t="s">
+      <c r="AS23" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT23" s="57" t="s">
+      <c r="AT23" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU23" s="64"/>
-      <c r="AV23" s="64"/>
-      <c r="AW23" s="57" t="s">
+      <c r="AU23" s="68"/>
+      <c r="AV23" s="68"/>
+      <c r="AW23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX23" s="64"/>
-      <c r="AY23" s="64"/>
-      <c r="AZ23" s="57" t="s">
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA23" s="64"/>
-      <c r="BB23" s="58"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="69"/>
     </row>
     <row r="24" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="60" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="70" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U24" s="60" t="s">
+      <c r="L24" s="65"/>
+      <c r="M24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="70" t="s">
         <v>5</v>
       </c>
       <c r="V24" s="7"/>
-      <c r="W24" s="63"/>
-      <c r="X24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF24" s="60" t="s">
+      <c r="W24" s="65"/>
+      <c r="X24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF24" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AG24" s="7"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ24" s="60" t="s">
+      <c r="AH24" s="65"/>
+      <c r="AI24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="70" t="s">
         <v>5</v>
       </c>
       <c r="AR24" s="7"/>
-      <c r="AS24" s="63"/>
-      <c r="AT24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV24" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY24" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ24" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA24" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB24" s="60" t="s">
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV24" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY24" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ24" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA24" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB24" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="54"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="67"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="63"/>
-      <c r="U25" s="67"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="60"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="67"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="60"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="60"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
-      <c r="AN25" s="67"/>
-      <c r="AO25" s="63"/>
-      <c r="AP25" s="63"/>
-      <c r="AQ25" s="67"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="60"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="60"/>
       <c r="AR25" s="7"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="63"/>
-      <c r="AU25" s="63"/>
-      <c r="AV25" s="63"/>
-      <c r="AW25" s="63"/>
-      <c r="AX25" s="63"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="63"/>
-      <c r="BA25" s="63"/>
-      <c r="BB25" s="67"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="60"/>
     </row>
     <row r="26" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
@@ -8325,26 +8316,177 @@
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="X24:X25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="Z24:Z25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="BB24:BB25"/>
-    <mergeCell ref="AV24:AV25"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AX24:AX25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="AZ24:AZ25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="AN24:AN25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="AP24:AP25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AT24:AT25"/>
-    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="W4:AF4"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AS4:BB4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="W6:AF6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="AS6:BB6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AW7:AY7"/>
+    <mergeCell ref="AZ7:BB7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="AS7:AS9"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="W14:AF14"/>
+    <mergeCell ref="AH14:AQ14"/>
+    <mergeCell ref="AS14:BB14"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AZ15:BB15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="AH15:AH17"/>
+    <mergeCell ref="AI15:AK15"/>
+    <mergeCell ref="AL15:AN15"/>
+    <mergeCell ref="AO15:AQ15"/>
+    <mergeCell ref="AS15:AS17"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AK16:AK17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="AL16:AL17"/>
+    <mergeCell ref="AM16:AM17"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="W22:AF22"/>
+    <mergeCell ref="AH22:AQ22"/>
+    <mergeCell ref="AS22:BB22"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="AB24:AB25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AD24:AD25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="AF24:AF25"/>
     <mergeCell ref="AW23:AY23"/>
     <mergeCell ref="AZ23:BB23"/>
     <mergeCell ref="B24:B25"/>
@@ -8369,177 +8511,26 @@
     <mergeCell ref="S23:U23"/>
     <mergeCell ref="W23:W25"/>
     <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="AB24:AB25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AD24:AD25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="AF24:AF25"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="W22:AF22"/>
-    <mergeCell ref="AH22:AQ22"/>
-    <mergeCell ref="AS22:BB22"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AZ15:BB15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="AH15:AH17"/>
-    <mergeCell ref="AI15:AK15"/>
-    <mergeCell ref="AL15:AN15"/>
-    <mergeCell ref="AO15:AQ15"/>
-    <mergeCell ref="AS15:AS17"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AJ16:AJ17"/>
-    <mergeCell ref="AK16:AK17"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="AL16:AL17"/>
-    <mergeCell ref="AM16:AM17"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="L14:U14"/>
-    <mergeCell ref="W14:AF14"/>
-    <mergeCell ref="AH14:AQ14"/>
-    <mergeCell ref="AS14:BB14"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AW7:AY7"/>
-    <mergeCell ref="AZ7:BB7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="AS7:AS9"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="W4:AF4"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AS4:BB4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="L6:U6"/>
-    <mergeCell ref="W6:AF6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="AS6:BB6"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="Z24:Z25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="BB24:BB25"/>
+    <mergeCell ref="AV24:AV25"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AX24:AX25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="AZ24:AZ25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="AN24:AN25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="AP24:AP25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AT24:AT25"/>
+    <mergeCell ref="AU24:AU25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -8550,8 +8541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D08B14-549C-4F23-A17E-F489700614DC}">
   <dimension ref="A1:BB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8574,506 +8565,504 @@
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="L4" s="69" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="L4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="W4" s="69" t="s">
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="W4" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AH4" s="69" t="s">
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AH4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AS4" s="69" t="s">
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AS4" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="74"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
     </row>
     <row r="6" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="L6" s="51" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="L6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="W6" s="51" t="s">
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="W6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AH6" s="51" t="s">
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AH6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AS6" s="51" t="s">
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AS6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
     </row>
     <row r="7" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="57" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="57" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="58"/>
-      <c r="L7" s="53" t="s">
+      <c r="I7" s="68"/>
+      <c r="J7" s="69"/>
+      <c r="L7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="57" t="s">
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="57" t="s">
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="58"/>
-      <c r="W7" s="53" t="s">
+      <c r="T7" s="68"/>
+      <c r="U7" s="69"/>
+      <c r="W7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X7" s="57" t="s">
+      <c r="X7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="57" t="s">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="57" t="s">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="58"/>
-      <c r="AH7" s="53" t="s">
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="69"/>
+      <c r="AH7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI7" s="57" t="s">
+      <c r="AI7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="64"/>
-      <c r="AL7" s="57" t="s">
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM7" s="64"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="58"/>
-      <c r="AS7" s="53" t="s">
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="69"/>
+      <c r="AS7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT7" s="57" t="s">
+      <c r="AT7" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="57" t="s">
+      <c r="AU7" s="68"/>
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="57" t="s">
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="58"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="69"/>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="63"/>
-      <c r="X8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ8" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA8" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB8" s="60" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="65"/>
+      <c r="M8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="65"/>
+      <c r="X8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV8" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY8" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ8" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB8" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="67"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="63"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="67"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="63"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="63"/>
-      <c r="AB9" s="63"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="63"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="67"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="63"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="63"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="63"/>
-      <c r="AQ9" s="67"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="63"/>
-      <c r="AU9" s="63"/>
-      <c r="AV9" s="63"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="67"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="60"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="60"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="60"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="65"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="65"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="60"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="65"/>
+      <c r="BA9" s="65"/>
+      <c r="BB9" s="60"/>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A10" s="72">
+      <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="27">
         <v>61.538499999999999</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="27">
         <v>61.538499999999999</v>
       </c>
-      <c r="D10" s="70">
+      <c r="D10" s="27">
         <v>61.538499999999999</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="27">
         <v>58.333300000000001</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="27">
         <v>58.333300000000001</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="27">
         <v>58.333300000000001</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="27">
         <v>68.131900000000002</v>
       </c>
-      <c r="I10" s="70">
+      <c r="I10" s="27">
         <v>68.131900000000002</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="27">
         <v>68.131900000000002</v>
       </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72">
+      <c r="L10" s="8">
         <v>10</v>
       </c>
-      <c r="M10" s="70">
+      <c r="M10" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="N10" s="70">
+      <c r="N10" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="O10" s="70">
+      <c r="O10" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="P10" s="70">
+      <c r="P10" s="27">
         <v>56</v>
       </c>
-      <c r="Q10" s="70">
+      <c r="Q10" s="27">
         <v>56</v>
       </c>
-      <c r="R10" s="70">
+      <c r="R10" s="27">
         <v>56</v>
       </c>
-      <c r="S10" s="70">
+      <c r="S10" s="27">
         <v>72.649600000000007</v>
       </c>
-      <c r="T10" s="70">
+      <c r="T10" s="27">
         <v>72.649600000000007</v>
       </c>
-      <c r="U10" s="70">
+      <c r="U10" s="27">
         <v>72.649600000000007</v>
       </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="72">
+      <c r="W10" s="8">
         <v>10</v>
       </c>
-      <c r="X10" s="70">
+      <c r="X10" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="Y10" s="70">
+      <c r="Y10" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="Z10" s="70">
+      <c r="Z10" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="AA10" s="70">
+      <c r="AA10" s="27">
         <v>62</v>
       </c>
-      <c r="AB10" s="70">
+      <c r="AB10" s="27">
         <v>62</v>
       </c>
-      <c r="AC10" s="70">
+      <c r="AC10" s="27">
         <v>62</v>
       </c>
-      <c r="AD10" s="70">
+      <c r="AD10" s="27">
         <v>72.435900000000004</v>
       </c>
-      <c r="AE10" s="70">
+      <c r="AE10" s="27">
         <v>72.435900000000004</v>
       </c>
-      <c r="AF10" s="70">
+      <c r="AF10" s="27">
         <v>72.435900000000004</v>
       </c>
       <c r="AH10" s="8">
@@ -9102,96 +9091,94 @@
       <c r="BB10" s="39"/>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A11" s="72">
+      <c r="A11" s="8">
         <v>15</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="29">
         <v>69.230800000000002</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="29">
         <v>69.230800000000002</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="29">
         <v>69.230800000000002</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="29">
         <v>61.666699999999999</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="29">
         <v>61.666699999999999</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="29">
         <v>61.666699999999999</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="29">
         <v>68.131900000000002</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="29">
         <v>68.131900000000002</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="29">
         <v>68.131900000000002</v>
       </c>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72">
+      <c r="L11" s="8">
         <v>15</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="N11" s="73">
+      <c r="N11" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="O11" s="73">
+      <c r="O11" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="P11" s="73">
+      <c r="P11" s="29">
         <v>81.666700000000006</v>
       </c>
-      <c r="Q11" s="73">
+      <c r="Q11" s="29">
         <v>81.666700000000006</v>
       </c>
-      <c r="R11" s="73">
+      <c r="R11" s="29">
         <v>81.666700000000006</v>
       </c>
-      <c r="S11" s="73">
+      <c r="S11" s="29">
         <v>78.534800000000004</v>
       </c>
-      <c r="T11" s="73">
+      <c r="T11" s="29">
         <v>78.534800000000004</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="29">
         <v>78.534800000000004</v>
       </c>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72">
+      <c r="W11" s="8">
         <v>15</v>
       </c>
-      <c r="X11" s="73">
+      <c r="X11" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="Y11" s="73">
+      <c r="Y11" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="Z11" s="73">
+      <c r="Z11" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="AA11" s="73">
+      <c r="AA11" s="29">
         <v>79.761899999999997</v>
       </c>
-      <c r="AB11" s="73">
+      <c r="AB11" s="29">
         <v>79.761899999999997</v>
       </c>
-      <c r="AC11" s="73">
+      <c r="AC11" s="29">
         <v>79.761899999999997</v>
       </c>
-      <c r="AD11" s="73">
+      <c r="AD11" s="29">
         <v>79.191299999999998</v>
       </c>
-      <c r="AE11" s="73">
+      <c r="AE11" s="29">
         <v>79.191299999999998</v>
       </c>
-      <c r="AF11" s="73">
+      <c r="AF11" s="29">
         <v>79.191299999999998</v>
       </c>
       <c r="AH11" s="8">
@@ -9220,96 +9207,94 @@
       <c r="BB11" s="35"/>
     </row>
     <row r="12" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="47">
         <v>20</v>
       </c>
-      <c r="B12" s="75">
+      <c r="B12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="48">
         <v>85</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="48">
         <v>85</v>
       </c>
-      <c r="G12" s="75">
+      <c r="G12" s="48">
         <v>85</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="J12" s="75">
+      <c r="J12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="74">
+      <c r="L12" s="47">
         <v>20</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="O12" s="75">
+      <c r="O12" s="48">
         <v>84.615399999999994</v>
       </c>
-      <c r="P12" s="75">
+      <c r="P12" s="48">
         <v>87.142899999999997</v>
       </c>
-      <c r="Q12" s="75">
+      <c r="Q12" s="48">
         <v>87.142899999999997</v>
       </c>
-      <c r="R12" s="75">
+      <c r="R12" s="48">
         <v>87.142899999999997</v>
       </c>
-      <c r="S12" s="75">
+      <c r="S12" s="48">
         <v>85.088800000000006</v>
       </c>
-      <c r="T12" s="75">
+      <c r="T12" s="48">
         <v>85.088800000000006</v>
       </c>
-      <c r="U12" s="75">
+      <c r="U12" s="48">
         <v>85.088800000000006</v>
       </c>
-      <c r="V12" s="71"/>
-      <c r="W12" s="74">
+      <c r="W12" s="47">
         <v>20</v>
       </c>
-      <c r="X12" s="75">
+      <c r="X12" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="Y12" s="75">
+      <c r="Y12" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="Z12" s="75">
+      <c r="Z12" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="AA12" s="75">
+      <c r="AA12" s="48">
         <v>95</v>
       </c>
-      <c r="AB12" s="75">
+      <c r="AB12" s="48">
         <v>95</v>
       </c>
-      <c r="AC12" s="75">
+      <c r="AC12" s="48">
         <v>95</v>
       </c>
-      <c r="AD12" s="75">
+      <c r="AD12" s="48">
         <v>95.726500000000001</v>
       </c>
-      <c r="AE12" s="75">
+      <c r="AE12" s="48">
         <v>95.726500000000001</v>
       </c>
-      <c r="AF12" s="75">
+      <c r="AF12" s="48">
         <v>95.726500000000001</v>
       </c>
       <c r="AG12" s="19"/>
@@ -9339,413 +9324,412 @@
       <c r="BB12" s="37"/>
     </row>
     <row r="14" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="L14" s="51" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="L14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="W14" s="51" t="s">
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="W14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AH14" s="51" t="s">
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AH14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AS14" s="51" t="s">
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AS14" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
+      <c r="AT14" s="63"/>
+      <c r="AU14" s="63"/>
+      <c r="AV14" s="63"/>
+      <c r="AW14" s="63"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="63"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
     </row>
     <row r="15" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="57" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="58"/>
-      <c r="L15" s="53" t="s">
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
+      <c r="L15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="57" t="s">
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="57" t="s">
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="58"/>
-      <c r="W15" s="53" t="s">
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+      <c r="W15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="57" t="s">
+      <c r="X15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="57" t="s">
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="57" t="s">
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="58"/>
-      <c r="AH15" s="53" t="s">
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="69"/>
+      <c r="AH15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI15" s="57" t="s">
+      <c r="AI15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="57" t="s">
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="57" t="s">
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="58"/>
-      <c r="AS15" s="53" t="s">
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="69"/>
+      <c r="AS15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT15" s="57" t="s">
+      <c r="AT15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="57" t="s">
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX15" s="64"/>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="57" t="s">
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA15" s="64"/>
-      <c r="BB15" s="58"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="69"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="63"/>
-      <c r="X16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV16" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA16" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB16" s="60" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W16" s="65"/>
+      <c r="X16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV16" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY16" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ16" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB16" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="61"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="61"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
       <c r="R17" s="61"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
       <c r="U17" s="61"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
-      <c r="AA17" s="63"/>
-      <c r="AB17" s="63"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="63"/>
-      <c r="AE17" s="63"/>
-      <c r="AF17" s="67"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="63"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="67"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="67"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="67"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="60"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="60"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="60"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="60"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="60"/>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A18" s="78">
+      <c r="A18" s="51">
         <v>10</v>
       </c>
-      <c r="B18" s="70">
+      <c r="B18" s="27">
         <v>84.615399999999994</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="27">
         <v>84.615399999999994</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="27">
         <v>84.615399999999994</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="27">
         <v>73.333299999999994</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="27">
         <v>86.666700000000006</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="27">
         <v>86.666700000000006</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="27">
         <v>83.333299999999994</v>
       </c>
-      <c r="I18" s="70">
+      <c r="I18" s="27">
         <v>83.333299999999994</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="27">
         <v>83.333299999999994</v>
       </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="72">
+      <c r="L18" s="8">
         <v>10</v>
       </c>
-      <c r="M18" s="70">
+      <c r="M18" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="N18" s="70">
+      <c r="N18" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="O18" s="70">
+      <c r="O18" s="27">
         <v>69.230800000000002</v>
       </c>
-      <c r="P18" s="70">
+      <c r="P18" s="27">
         <v>66.666700000000006</v>
       </c>
-      <c r="Q18" s="70">
+      <c r="Q18" s="27">
         <v>66.666700000000006</v>
       </c>
-      <c r="R18" s="70">
+      <c r="R18" s="27">
         <v>66.666700000000006</v>
       </c>
-      <c r="S18" s="70">
+      <c r="S18" s="27">
         <v>69.463899999999995</v>
       </c>
-      <c r="T18" s="70">
+      <c r="T18" s="27">
         <v>67.412599999999998</v>
       </c>
-      <c r="U18" s="70">
+      <c r="U18" s="27">
         <v>67.412599999999998</v>
       </c>
       <c r="W18" s="8">
@@ -9807,92 +9791,91 @@
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="29">
         <v>76.923100000000005</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="29">
         <v>72.222200000000001</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="29">
         <v>72.222200000000001</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="29">
         <v>72.222200000000001</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="29">
         <v>84.265699999999995</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="29">
         <v>84.265699999999995</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="29">
         <v>84.265699999999995</v>
       </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="72">
+      <c r="L19" s="8">
         <v>15</v>
       </c>
-      <c r="M19" s="73">
+      <c r="M19" s="29">
         <v>92.307699999999997</v>
       </c>
-      <c r="N19" s="73">
+      <c r="N19" s="29">
         <v>69.230800000000002</v>
       </c>
-      <c r="O19" s="73">
+      <c r="O19" s="29">
         <v>69.230800000000002</v>
       </c>
-      <c r="P19" s="73">
+      <c r="P19" s="29">
         <v>90</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="29">
         <v>78</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="29">
         <v>78</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="29">
         <v>91.375299999999996</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="29">
         <v>71.025599999999997</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="29">
         <v>71.025599999999997</v>
       </c>
-      <c r="W19" s="76">
+      <c r="W19" s="49">
         <v>15</v>
       </c>
-      <c r="X19" s="77">
+      <c r="X19" s="50">
         <v>84.615399999999994</v>
       </c>
-      <c r="Y19" s="77">
+      <c r="Y19" s="50">
         <v>92.307699999999997</v>
       </c>
-      <c r="Z19" s="77">
+      <c r="Z19" s="50">
         <v>92.307699999999997</v>
       </c>
-      <c r="AA19" s="77">
+      <c r="AA19" s="50">
         <v>83.333299999999994</v>
       </c>
-      <c r="AB19" s="77">
+      <c r="AB19" s="50">
         <v>91.666700000000006</v>
       </c>
-      <c r="AC19" s="77">
+      <c r="AC19" s="50">
         <v>91.666700000000006</v>
       </c>
-      <c r="AD19" s="77">
+      <c r="AD19" s="50">
         <v>87.692300000000003</v>
       </c>
-      <c r="AE19" s="77">
+      <c r="AE19" s="50">
         <v>95.384600000000006</v>
       </c>
-      <c r="AF19" s="77">
+      <c r="AF19" s="50">
         <v>95.384600000000006</v>
       </c>
       <c r="AH19" s="8">
@@ -9921,65 +9904,65 @@
       <c r="BB19" s="35"/>
     </row>
     <row r="20" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74">
+      <c r="A20" s="47">
         <v>20</v>
       </c>
-      <c r="B20" s="75">
-        <v>100</v>
-      </c>
-      <c r="C20" s="75">
+      <c r="B20" s="48">
+        <v>100</v>
+      </c>
+      <c r="C20" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="E20" s="75">
-        <v>100</v>
-      </c>
-      <c r="F20" s="75">
+      <c r="E20" s="48">
+        <v>100</v>
+      </c>
+      <c r="F20" s="48">
         <v>90</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="48">
         <v>90</v>
       </c>
-      <c r="H20" s="75">
-        <v>100</v>
-      </c>
-      <c r="I20" s="75">
+      <c r="H20" s="48">
+        <v>100</v>
+      </c>
+      <c r="I20" s="48">
         <v>91.794899999999998</v>
       </c>
-      <c r="J20" s="75">
+      <c r="J20" s="48">
         <v>91.794899999999998</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="74">
+      <c r="K20" s="75"/>
+      <c r="L20" s="47">
         <v>20</v>
       </c>
-      <c r="M20" s="75">
-        <v>100</v>
-      </c>
-      <c r="N20" s="75">
+      <c r="M20" s="48">
+        <v>100</v>
+      </c>
+      <c r="N20" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="O20" s="75">
+      <c r="O20" s="48">
         <v>92.307699999999997</v>
       </c>
-      <c r="P20" s="75">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="75">
+      <c r="P20" s="48">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="48">
         <v>91.666700000000006</v>
       </c>
-      <c r="R20" s="75">
+      <c r="R20" s="48">
         <v>91.666700000000006</v>
       </c>
-      <c r="S20" s="75">
-        <v>100</v>
-      </c>
-      <c r="T20" s="75">
+      <c r="S20" s="48">
+        <v>100</v>
+      </c>
+      <c r="T20" s="48">
         <v>95.384600000000006</v>
       </c>
-      <c r="U20" s="75">
+      <c r="U20" s="48">
         <v>95.384600000000006</v>
       </c>
       <c r="V20" s="19"/>
@@ -10061,352 +10044,352 @@
     <row r="49" spans="1:54" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:54" s="43" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="L51" s="51" t="s">
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="L51" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="W51" s="51" t="s">
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="W51" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="51"/>
-      <c r="AC51" s="51"/>
-      <c r="AD51" s="51"/>
-      <c r="AE51" s="51"/>
-      <c r="AF51" s="51"/>
-      <c r="AH51" s="51" t="s">
+      <c r="X51" s="63"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="63"/>
+      <c r="AB51" s="63"/>
+      <c r="AC51" s="63"/>
+      <c r="AD51" s="63"/>
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="63"/>
+      <c r="AH51" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AI51" s="51"/>
-      <c r="AJ51" s="51"/>
-      <c r="AK51" s="51"/>
-      <c r="AL51" s="51"/>
-      <c r="AM51" s="51"/>
-      <c r="AN51" s="51"/>
-      <c r="AO51" s="51"/>
-      <c r="AP51" s="51"/>
-      <c r="AQ51" s="51"/>
-      <c r="AS51" s="51" t="s">
+      <c r="AI51" s="63"/>
+      <c r="AJ51" s="63"/>
+      <c r="AK51" s="63"/>
+      <c r="AL51" s="63"/>
+      <c r="AM51" s="63"/>
+      <c r="AN51" s="63"/>
+      <c r="AO51" s="63"/>
+      <c r="AP51" s="63"/>
+      <c r="AQ51" s="63"/>
+      <c r="AS51" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AT51" s="51"/>
-      <c r="AU51" s="51"/>
-      <c r="AV51" s="51"/>
-      <c r="AW51" s="51"/>
-      <c r="AX51" s="51"/>
-      <c r="AY51" s="51"/>
-      <c r="AZ51" s="51"/>
-      <c r="BA51" s="51"/>
-      <c r="BB51" s="51"/>
+      <c r="AT51" s="63"/>
+      <c r="AU51" s="63"/>
+      <c r="AV51" s="63"/>
+      <c r="AW51" s="63"/>
+      <c r="AX51" s="63"/>
+      <c r="AY51" s="63"/>
+      <c r="AZ51" s="63"/>
+      <c r="BA51" s="63"/>
+      <c r="BB51" s="63"/>
     </row>
     <row r="52" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="57" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="57" t="s">
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="64"/>
-      <c r="J52" s="58"/>
-      <c r="L52" s="53" t="s">
+      <c r="I52" s="68"/>
+      <c r="J52" s="69"/>
+      <c r="L52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M52" s="57" t="s">
+      <c r="M52" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="57" t="s">
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="Q52" s="64"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="57" t="s">
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="T52" s="64"/>
-      <c r="U52" s="58"/>
-      <c r="W52" s="53" t="s">
+      <c r="T52" s="68"/>
+      <c r="U52" s="69"/>
+      <c r="W52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="X52" s="57" t="s">
+      <c r="X52" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Y52" s="64"/>
-      <c r="Z52" s="64"/>
-      <c r="AA52" s="57" t="s">
+      <c r="Y52" s="68"/>
+      <c r="Z52" s="68"/>
+      <c r="AA52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AB52" s="64"/>
-      <c r="AC52" s="64"/>
-      <c r="AD52" s="57" t="s">
+      <c r="AB52" s="68"/>
+      <c r="AC52" s="68"/>
+      <c r="AD52" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AE52" s="64"/>
-      <c r="AF52" s="58"/>
-      <c r="AH52" s="53" t="s">
+      <c r="AE52" s="68"/>
+      <c r="AF52" s="69"/>
+      <c r="AH52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AI52" s="57" t="s">
+      <c r="AI52" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AJ52" s="64"/>
-      <c r="AK52" s="64"/>
-      <c r="AL52" s="57" t="s">
+      <c r="AJ52" s="68"/>
+      <c r="AK52" s="68"/>
+      <c r="AL52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AM52" s="64"/>
-      <c r="AN52" s="64"/>
-      <c r="AO52" s="57" t="s">
+      <c r="AM52" s="68"/>
+      <c r="AN52" s="68"/>
+      <c r="AO52" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP52" s="64"/>
-      <c r="AQ52" s="58"/>
-      <c r="AS52" s="53" t="s">
+      <c r="AP52" s="68"/>
+      <c r="AQ52" s="69"/>
+      <c r="AS52" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AT52" s="57" t="s">
+      <c r="AT52" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AU52" s="64"/>
-      <c r="AV52" s="64"/>
-      <c r="AW52" s="57" t="s">
+      <c r="AU52" s="68"/>
+      <c r="AV52" s="68"/>
+      <c r="AW52" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AX52" s="64"/>
-      <c r="AY52" s="64"/>
-      <c r="AZ52" s="57" t="s">
+      <c r="AX52" s="68"/>
+      <c r="AY52" s="68"/>
+      <c r="AZ52" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="BA52" s="64"/>
-      <c r="BB52" s="58"/>
+      <c r="BA52" s="68"/>
+      <c r="BB52" s="69"/>
     </row>
     <row r="53" spans="1:54" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="L53" s="63"/>
-      <c r="M53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="P53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="R53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="S53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="T53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="U53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="W53" s="63"/>
-      <c r="X53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z53" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH53" s="63"/>
-      <c r="AI53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK53" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS53" s="63"/>
-      <c r="AT53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV53" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="AW53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY53" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AZ53" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA53" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB53" s="60" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="65"/>
+      <c r="M53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="P53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="R53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="S53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="T53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="U53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="W53" s="65"/>
+      <c r="X53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z53" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH53" s="65"/>
+      <c r="AI53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK53" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS53" s="65"/>
+      <c r="AT53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV53" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY53" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ53" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA53" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB53" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:54" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="54"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="67"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="63"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="67"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="63"/>
-      <c r="Y54" s="63"/>
-      <c r="Z54" s="63"/>
-      <c r="AA54" s="63"/>
-      <c r="AB54" s="63"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="63"/>
-      <c r="AE54" s="63"/>
-      <c r="AF54" s="67"/>
-      <c r="AH54" s="54"/>
-      <c r="AI54" s="63"/>
-      <c r="AJ54" s="63"/>
-      <c r="AK54" s="63"/>
-      <c r="AL54" s="63"/>
-      <c r="AM54" s="63"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="63"/>
-      <c r="AP54" s="63"/>
-      <c r="AQ54" s="67"/>
-      <c r="AS54" s="54"/>
-      <c r="AT54" s="63"/>
-      <c r="AU54" s="63"/>
-      <c r="AV54" s="63"/>
-      <c r="AW54" s="63"/>
-      <c r="AX54" s="63"/>
-      <c r="AY54" s="67"/>
-      <c r="AZ54" s="63"/>
-      <c r="BA54" s="63"/>
-      <c r="BB54" s="67"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="60"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="65"/>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="60"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="65"/>
+      <c r="Y54" s="65"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="65"/>
+      <c r="AB54" s="65"/>
+      <c r="AC54" s="60"/>
+      <c r="AD54" s="65"/>
+      <c r="AE54" s="65"/>
+      <c r="AF54" s="60"/>
+      <c r="AH54" s="66"/>
+      <c r="AI54" s="65"/>
+      <c r="AJ54" s="65"/>
+      <c r="AK54" s="65"/>
+      <c r="AL54" s="65"/>
+      <c r="AM54" s="65"/>
+      <c r="AN54" s="60"/>
+      <c r="AO54" s="65"/>
+      <c r="AP54" s="65"/>
+      <c r="AQ54" s="60"/>
+      <c r="AS54" s="66"/>
+      <c r="AT54" s="65"/>
+      <c r="AU54" s="65"/>
+      <c r="AV54" s="65"/>
+      <c r="AW54" s="65"/>
+      <c r="AX54" s="65"/>
+      <c r="AY54" s="60"/>
+      <c r="AZ54" s="65"/>
+      <c r="BA54" s="65"/>
+      <c r="BB54" s="60"/>
     </row>
     <row r="55" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -10596,31 +10579,172 @@
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="AV16:AV17"/>
-    <mergeCell ref="AW16:AW17"/>
-    <mergeCell ref="AX16:AX17"/>
-    <mergeCell ref="AY16:AY17"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="AN16:AN17"/>
-    <mergeCell ref="AO16:AO17"/>
-    <mergeCell ref="AP16:AP17"/>
-    <mergeCell ref="AQ16:AQ17"/>
-    <mergeCell ref="AT16:AT17"/>
-    <mergeCell ref="AU16:AU17"/>
-    <mergeCell ref="AB16:AB17"/>
-    <mergeCell ref="AC16:AC17"/>
-    <mergeCell ref="AD16:AD17"/>
-    <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AF16:AF17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Y16:Y17"/>
-    <mergeCell ref="Z16:Z17"/>
-    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="W4:AF4"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AS4:BB4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="W6:AF6"/>
+    <mergeCell ref="AH6:AQ6"/>
+    <mergeCell ref="AS6:BB6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AW7:AY7"/>
+    <mergeCell ref="AZ7:BB7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="AH7:AH9"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="AS7:AS9"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="L51:U51"/>
+    <mergeCell ref="W51:AF51"/>
+    <mergeCell ref="AH51:AQ51"/>
+    <mergeCell ref="AS51:BB51"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="AL53:AL54"/>
+    <mergeCell ref="AM53:AM54"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="W52:W54"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AC52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="Y53:Y54"/>
+    <mergeCell ref="Z53:Z54"/>
+    <mergeCell ref="AA53:AA54"/>
+    <mergeCell ref="AW52:AY52"/>
+    <mergeCell ref="AZ52:BB52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="AH52:AH54"/>
+    <mergeCell ref="AI52:AK52"/>
+    <mergeCell ref="AL52:AN52"/>
+    <mergeCell ref="AO52:AQ52"/>
+    <mergeCell ref="AS52:AS54"/>
+    <mergeCell ref="AT52:AV52"/>
+    <mergeCell ref="AJ53:AJ54"/>
+    <mergeCell ref="AK53:AK54"/>
+    <mergeCell ref="BB53:BB54"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="W14:AF14"/>
+    <mergeCell ref="AH14:AQ14"/>
+    <mergeCell ref="AS14:BB14"/>
+    <mergeCell ref="AV53:AV54"/>
+    <mergeCell ref="AW53:AW54"/>
+    <mergeCell ref="AX53:AX54"/>
+    <mergeCell ref="AY53:AY54"/>
+    <mergeCell ref="AZ53:AZ54"/>
+    <mergeCell ref="BA53:BA54"/>
+    <mergeCell ref="AN53:AN54"/>
+    <mergeCell ref="AO53:AO54"/>
+    <mergeCell ref="AP53:AP54"/>
+    <mergeCell ref="AQ53:AQ54"/>
+    <mergeCell ref="AT53:AT54"/>
+    <mergeCell ref="AU53:AU54"/>
+    <mergeCell ref="AB53:AB54"/>
+    <mergeCell ref="AC53:AC54"/>
+    <mergeCell ref="AD53:AD54"/>
+    <mergeCell ref="AE53:AE54"/>
+    <mergeCell ref="AF53:AF54"/>
+    <mergeCell ref="AI53:AI54"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
     <mergeCell ref="AW15:AY15"/>
     <mergeCell ref="AZ15:BB15"/>
     <mergeCell ref="B16:B17"/>
@@ -10645,172 +10769,31 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="W15:W17"/>
     <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="BB53:BB54"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="L14:U14"/>
-    <mergeCell ref="W14:AF14"/>
-    <mergeCell ref="AH14:AQ14"/>
-    <mergeCell ref="AS14:BB14"/>
-    <mergeCell ref="AV53:AV54"/>
-    <mergeCell ref="AW53:AW54"/>
-    <mergeCell ref="AX53:AX54"/>
-    <mergeCell ref="AY53:AY54"/>
-    <mergeCell ref="AZ53:AZ54"/>
-    <mergeCell ref="BA53:BA54"/>
-    <mergeCell ref="AN53:AN54"/>
-    <mergeCell ref="AO53:AO54"/>
-    <mergeCell ref="AP53:AP54"/>
-    <mergeCell ref="AQ53:AQ54"/>
-    <mergeCell ref="AT53:AT54"/>
-    <mergeCell ref="AU53:AU54"/>
-    <mergeCell ref="AB53:AB54"/>
-    <mergeCell ref="AC53:AC54"/>
-    <mergeCell ref="AD53:AD54"/>
-    <mergeCell ref="AE53:AE54"/>
-    <mergeCell ref="AF53:AF54"/>
-    <mergeCell ref="AI53:AI54"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="Y53:Y54"/>
-    <mergeCell ref="Z53:Z54"/>
-    <mergeCell ref="AA53:AA54"/>
-    <mergeCell ref="AW52:AY52"/>
-    <mergeCell ref="AZ52:BB52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="AH52:AH54"/>
-    <mergeCell ref="AI52:AK52"/>
-    <mergeCell ref="AL52:AN52"/>
-    <mergeCell ref="AO52:AQ52"/>
-    <mergeCell ref="AS52:AS54"/>
-    <mergeCell ref="AT52:AV52"/>
-    <mergeCell ref="AJ53:AJ54"/>
-    <mergeCell ref="AK53:AK54"/>
-    <mergeCell ref="AL53:AL54"/>
-    <mergeCell ref="AM53:AM54"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="W52:W54"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AC52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="L51:U51"/>
-    <mergeCell ref="W51:AF51"/>
-    <mergeCell ref="AH51:AQ51"/>
-    <mergeCell ref="AS51:BB51"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AW7:AY7"/>
-    <mergeCell ref="AZ7:BB7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="AH7:AH9"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="AS7:AS9"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="W4:AF4"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AS4:BB4"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="L6:U6"/>
-    <mergeCell ref="W6:AF6"/>
-    <mergeCell ref="AH6:AQ6"/>
-    <mergeCell ref="AS6:BB6"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="AC16:AC17"/>
+    <mergeCell ref="AD16:AD17"/>
+    <mergeCell ref="AE16:AE17"/>
+    <mergeCell ref="AF16:AF17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Y16:Y17"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="AA16:AA17"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="AV16:AV17"/>
+    <mergeCell ref="AW16:AW17"/>
+    <mergeCell ref="AX16:AX17"/>
+    <mergeCell ref="AY16:AY17"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="AN16:AN17"/>
+    <mergeCell ref="AO16:AO17"/>
+    <mergeCell ref="AP16:AP17"/>
+    <mergeCell ref="AQ16:AQ17"/>
+    <mergeCell ref="AT16:AT17"/>
+    <mergeCell ref="AU16:AU17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
